--- a/config_ios/fish_3d_yutu_random_2.xlsx
+++ b/config_ios/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,106 @@
   </si>
   <si>
     <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dead_force_create_index|死亡强制创建标志索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_create_num|最大的创建次数（默认为9999）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,35,42,43,44,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,9,10,11,26,27,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -236,139 +336,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dead_force_create_index|死亡强制创建标志索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-  </si>
-  <si>
-    <t>max_create_num|最大的创建次数（默认为9999）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,35,42,43,44,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲤鱼王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>52,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,7,8,9,10,</t>
+    <t>5,5,5,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1086,17 +1058,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="74.875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="9" customWidth="1"/>
   </cols>
@@ -1106,7 +1078,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>41</v>
@@ -1121,10 +1093,10 @@
         <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1132,19 +1104,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D2" s="9">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E2" s="9">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1152,19 +1124,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D3" s="9">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E3" s="9">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1172,19 +1144,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E4">
-        <v>350</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
+        <v>400</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1192,10 +1164,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D5" s="9">
         <v>400</v>
@@ -1204,7 +1176,7 @@
         <v>500</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1212,10 +1184,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>400</v>
@@ -1223,8 +1195,8 @@
       <c r="E6">
         <v>600</v>
       </c>
-      <c r="F6" t="s">
-        <v>57</v>
+      <c r="F6" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1232,19 +1204,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D7" s="9">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E7" s="9">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1252,19 +1224,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9">
+        <v>150</v>
+      </c>
+      <c r="E8" s="9">
+        <v>200</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="D8" s="9">
-        <v>300</v>
-      </c>
-      <c r="E8" s="9">
-        <v>500</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1272,19 +1244,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D9" s="9">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="E9" s="9">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1292,19 +1267,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D10" s="9">
-        <v>80</v>
+        <v>1800</v>
       </c>
       <c r="E10" s="9">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1312,19 +1290,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D11" s="9">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="E11" s="9">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
@@ -1335,19 +1313,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D12" s="9">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="E12" s="9">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
@@ -1358,69 +1336,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D13" s="9">
-        <v>2800</v>
+        <v>4800</v>
       </c>
       <c r="E13" s="9">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="9">
-        <v>3800</v>
-      </c>
-      <c r="E14" s="9">
-        <v>4200</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="9">
-        <v>4800</v>
-      </c>
-      <c r="E15" s="9">
-        <v>5200</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="9"/>
@@ -1430,29 +1370,21 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1870,8 +1802,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1897,7 +1829,7 @@
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1905,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1914,7 +1846,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1922,10 +1854,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>53</v>
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>50</v>
@@ -1939,10 +1871,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>53</v>
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>18</v>
@@ -1955,11 +1887,11 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>54</v>
+      <c r="B5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>16</v>
@@ -1972,11 +1904,11 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>55</v>
+      <c r="B6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>14</v>
